--- a/HojasDeCalculo_XLSX(Excel)/Excel_PlanDeNegocios.xlsx
+++ b/HojasDeCalculo_XLSX(Excel)/Excel_PlanDeNegocios.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Repositorio NEyDdPW\NEyDdPW\HojasDeCalculo_XLSX(Excel)\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF90B9D-452F-4667-A164-51C5A4C58E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="4590" yWindow="3210" windowWidth="28800" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,74 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+  <si>
+    <t>Proyección de ventas, gastos y beneficios</t>
+  </si>
+  <si>
+    <t>Venta 1</t>
+  </si>
+  <si>
+    <t>gastos</t>
+  </si>
+  <si>
+    <t>Beneficios netos</t>
+  </si>
+  <si>
+    <t>Proyección de ingresos y egresos</t>
+  </si>
+  <si>
+    <t>Ingresos</t>
+  </si>
+  <si>
+    <t>Egresos</t>
+  </si>
+  <si>
+    <t>Análisis del mercado</t>
+  </si>
+  <si>
+    <t>Dueños</t>
+  </si>
+  <si>
+    <t>Dueños pasionales</t>
+  </si>
+  <si>
+    <t>Nuevos dueños</t>
+  </si>
+  <si>
+    <t>Crecimiento del mercado</t>
+  </si>
+  <si>
+    <t>en millones de dolares</t>
+  </si>
+  <si>
+    <t>Previsión de ventas</t>
+  </si>
+  <si>
+    <t>Análisis de clientes potenciales</t>
+  </si>
+  <si>
+    <t>Pasionales</t>
+  </si>
+  <si>
+    <t>Análisis de compras potenciales</t>
+  </si>
+  <si>
+    <t>Productos</t>
+  </si>
+  <si>
+    <t>Servicio</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +99,150 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6FA8DC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE06666"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF93C47D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFE2F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4CCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9FC5E8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEA9999"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB6D7A8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6D9EEB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC27BA0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD966"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9DAF8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAD1DC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA4C2F4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD5A6BD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE599"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -45,12 +250,244 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="1" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="1" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="1" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="1" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="1" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="1" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="19" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="20" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="21" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +767,646 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
+        <v>44409</v>
+      </c>
+      <c r="B3" s="10">
+        <v>20000</v>
+      </c>
+      <c r="C3" s="11">
+        <v>25000</v>
+      </c>
+      <c r="D3" s="12">
+        <v>-5000</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13">
+        <v>44621</v>
+      </c>
+      <c r="B4" s="14">
+        <v>35500</v>
+      </c>
+      <c r="C4" s="15">
+        <v>35000</v>
+      </c>
+      <c r="D4" s="16">
+        <v>500</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17">
+        <v>44774</v>
+      </c>
+      <c r="B5" s="10">
+        <v>70000</v>
+      </c>
+      <c r="C5" s="11">
+        <v>50000</v>
+      </c>
+      <c r="D5" s="12">
+        <v>20000</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13">
+        <v>44986</v>
+      </c>
+      <c r="B6" s="14">
+        <v>75000</v>
+      </c>
+      <c r="C6" s="15">
+        <v>52000</v>
+      </c>
+      <c r="D6" s="16">
+        <v>23000</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="17">
+        <v>44409</v>
+      </c>
+      <c r="B10" s="12">
+        <v>20000</v>
+      </c>
+      <c r="C10" s="11">
+        <v>25000</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13">
+        <v>44621</v>
+      </c>
+      <c r="B11" s="16">
+        <v>35500</v>
+      </c>
+      <c r="C11" s="15">
+        <v>35000</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="17">
+        <v>44774</v>
+      </c>
+      <c r="B12" s="12">
+        <v>70000</v>
+      </c>
+      <c r="C12" s="11">
+        <v>50000</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13">
+        <v>44986</v>
+      </c>
+      <c r="B13" s="16">
+        <v>75000</v>
+      </c>
+      <c r="C13" s="15">
+        <v>52000</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B17" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="C17" s="27">
+        <v>0.3</v>
+      </c>
+      <c r="D17" s="28">
+        <v>0.05</v>
+      </c>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="29">
+        <v>2019</v>
+      </c>
+      <c r="B18" s="30">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C18" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="D18" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="25">
+        <v>2020</v>
+      </c>
+      <c r="B19" s="26">
+        <v>0.65</v>
+      </c>
+      <c r="C19" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="D19" s="28">
+        <v>0.42</v>
+      </c>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="29">
+        <v>2021</v>
+      </c>
+      <c r="B20" s="30">
+        <v>0.7</v>
+      </c>
+      <c r="C20" s="31">
+        <v>0.6</v>
+      </c>
+      <c r="D20" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5"/>
+      <c r="B23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="25">
+        <v>2010</v>
+      </c>
+      <c r="B24" s="33">
+        <v>985</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="29">
+        <v>2011</v>
+      </c>
+      <c r="B25" s="34">
+        <v>1073</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="25">
+        <v>2012</v>
+      </c>
+      <c r="B26" s="33">
+        <v>1197</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="29">
+        <v>2013</v>
+      </c>
+      <c r="B27" s="34">
+        <v>1314</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="25">
+        <v>2014</v>
+      </c>
+      <c r="B28" s="33">
+        <v>1446</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="29">
+        <v>2015</v>
+      </c>
+      <c r="B29" s="34">
+        <v>1582</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="25">
+        <v>2016</v>
+      </c>
+      <c r="B30" s="33">
+        <v>1743</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="29">
+        <v>2017</v>
+      </c>
+      <c r="B31" s="34">
+        <v>1926</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B32" s="33">
+        <v>2124</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="29">
+        <v>2019</v>
+      </c>
+      <c r="B33" s="34">
+        <v>2343</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="25">
+        <v>2020</v>
+      </c>
+      <c r="B34" s="33">
+        <v>2586</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="29">
+        <v>2021</v>
+      </c>
+      <c r="B35" s="34">
+        <v>2774</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="25">
+        <v>2022</v>
+      </c>
+      <c r="B36" s="33">
+        <v>2888</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="29">
+        <v>2023</v>
+      </c>
+      <c r="B37" s="34">
+        <v>2984</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="I38" s="38"/>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="21"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="5"/>
+      <c r="B40" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="17">
+        <v>44409</v>
+      </c>
+      <c r="B41" s="12">
+        <v>20000</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="13">
+        <v>44621</v>
+      </c>
+      <c r="B42" s="16">
+        <v>35500</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="17">
+        <v>44774</v>
+      </c>
+      <c r="B43" s="12">
+        <v>70000</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="13">
+        <v>44986</v>
+      </c>
+      <c r="B44" s="16">
+        <v>75000</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="18"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" s="21"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+    </row>
+    <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+    </row>
+    <row r="48" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="37">
+        <v>0.4</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="18"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" s="21"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+    </row>
+    <row r="51" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" s="37">
+        <v>0.8</v>
+      </c>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>